--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8A30C7-B49B-4EED-8587-1ADCF038D016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8996B-250D-4BE9-AB0A-1E2FD74FDB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,13 +145,13 @@
     <t>107.0.5304.107 (Official Build) (64-bit)</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
-  </si>
-  <si>
     <t>DPLK - Regression Test</t>
   </si>
   <si>
     <t>DPLK</t>
+  </si>
+  <si>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -208,15 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -530,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +648,10 @@
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -667,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>19</v>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8996B-250D-4BE9-AB0A-1E2FD74FDB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81534A7C-6985-4AC9-AB75-0EF4068CB89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81534A7C-6985-4AC9-AB75-0EF4068CB89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE4471A-E4E5-43F9-B709-09C5E13BE4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE4471A-E4E5-43F9-B709-09C5E13BE4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D7CF1-3A4D-4007-B176-4BAC438DAAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518D7CF1-3A4D-4007-B176-4BAC438DAAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC12CE-450C-493F-95B4-EF10750DC29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC12CE-450C-493F-95B4-EF10750DC29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB176C-E1DD-40A1-85B0-9F29F39F78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB176C-E1DD-40A1-85B0-9F29F39F78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374BB976-9AF4-4358-9191-2B064991E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
     <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" style="1" bestFit="1" customWidth="1"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374BB976-9AF4-4358-9191-2B064991E54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226964F1-7F10-4DC6-BB51-5333F615568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226964F1-7F10-4DC6-BB51-5333F615568C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DE7D8D-ACCB-46D0-8086-83AFE9BC96CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DE7D8D-ACCB-46D0-8086-83AFE9BC96CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16450FA-6163-4FE6-ADDC-5109412372FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16450FA-6163-4FE6-ADDC-5109412372FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D062E26-F7A7-475D-AB68-730782F7E0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D062E26-F7A7-475D-AB68-730782F7E0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB501D-8DAE-4F4A-99F8-8614F97ADFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     <t>DPLK</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BB501D-8DAE-4F4A-99F8-8614F97ADFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0FFFA-19DE-422C-A032-86F6031AB72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0FFFA-19DE-422C-A032-86F6031AB72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB50960-EC3D-4989-B564-1E2DB4A6AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>URL</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>DPLK</t>
+  </si>
+  <si>
+    <t>URL_ICONS</t>
+  </si>
+  <si>
+    <t>http://192.168.150.186/alternity/</t>
+  </si>
+  <si>
+    <t>PASSWORD_ICONS</t>
+  </si>
+  <si>
+    <t>KODE_CABANG</t>
+  </si>
+  <si>
+    <t>NOMOR_TERMINAL</t>
+  </si>
+  <si>
+    <t>089</t>
   </si>
   <si>
     <t>http://192.168.168.107/</t>
@@ -208,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -217,6 +235,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,9 +548,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -536,29 +560,33 @@
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -572,73 +600,85 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -649,48 +689,60 @@
         <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4">
+        <v>259</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -698,8 +750,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{1A1C7DD8-4697-442B-8C65-4E468F68DE91}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{3580B975-7DAD-4AE1-9043-8B3FF6D570ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB50960-EC3D-4989-B564-1E2DB4A6AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618E854-2DEF-43B2-A45C-BA61D993C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>URL</t>
   </si>
@@ -157,19 +157,7 @@
     <t>http://192.168.150.186/alternity/</t>
   </si>
   <si>
-    <t>PASSWORD_ICONS</t>
-  </si>
-  <si>
-    <t>KODE_CABANG</t>
-  </si>
-  <si>
-    <t>NOMOR_TERMINAL</t>
-  </si>
-  <si>
-    <t>089</t>
-  </si>
-  <si>
-    <t>http://192.168.168.107/</t>
+    <t>http://192.168.168.111/</t>
   </si>
 </sst>
 </file>
@@ -226,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -235,12 +223,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -548,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -561,32 +543,29 @@
     <col min="3" max="3" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -603,82 +582,73 @@
         <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="X1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Y1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -689,60 +659,51 @@
         <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4">
-        <v>259</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="Y2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618E854-2DEF-43B2-A45C-BA61D993C09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CF5D5A-3A7A-46B5-B324-F0009C0EFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>http://192.168.150.186/alternity/</t>
   </si>
   <si>
-    <t>http://192.168.168.111/</t>
+    <t>http://192.168.168.107/</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
